--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.7970187808853</v>
+        <v>12.36219633333334</v>
       </c>
       <c r="H2">
-        <v>10.7970187808853</v>
+        <v>37.086589</v>
       </c>
       <c r="I2">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072583</v>
       </c>
       <c r="J2">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N2">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q2">
-        <v>475.9434991148058</v>
+        <v>568.12344474285</v>
       </c>
       <c r="R2">
-        <v>475.9434991148058</v>
+        <v>5113.11100268565</v>
       </c>
       <c r="S2">
-        <v>0.5388522150169364</v>
+        <v>0.5380141242106548</v>
       </c>
       <c r="T2">
-        <v>0.5388522150169364</v>
+        <v>0.5380141242106549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.7970187808853</v>
+        <v>12.36219633333334</v>
       </c>
       <c r="H3">
-        <v>10.7970187808853</v>
+        <v>37.086589</v>
       </c>
       <c r="I3">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072583</v>
       </c>
       <c r="J3">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q3">
-        <v>71.2362124066336</v>
+        <v>84.6799899759129</v>
       </c>
       <c r="R3">
-        <v>71.2362124066336</v>
+        <v>762.1199097832161</v>
       </c>
       <c r="S3">
-        <v>0.08065199107903386</v>
+        <v>0.08019213265468954</v>
       </c>
       <c r="T3">
-        <v>0.08065199107903386</v>
+        <v>0.08019213265468954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.7970187808853</v>
+        <v>12.36219633333334</v>
       </c>
       <c r="H4">
-        <v>10.7970187808853</v>
+        <v>37.086589</v>
       </c>
       <c r="I4">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072583</v>
       </c>
       <c r="J4">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q4">
-        <v>231.1906651821402</v>
+        <v>265.1253244505873</v>
       </c>
       <c r="R4">
-        <v>231.1906651821402</v>
+        <v>2386.127920055286</v>
       </c>
       <c r="S4">
-        <v>0.261748720712298</v>
+        <v>0.251074252541914</v>
       </c>
       <c r="T4">
-        <v>0.261748720712298</v>
+        <v>0.251074252541914</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08330552173817</v>
+        <v>1.434409</v>
       </c>
       <c r="H5">
-        <v>1.08330552173817</v>
+        <v>4.303227</v>
       </c>
       <c r="I5">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="J5">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N5">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q5">
-        <v>47.75320216532762</v>
+        <v>65.92043681208966</v>
       </c>
       <c r="R5">
-        <v>47.75320216532762</v>
+        <v>593.2839313088069</v>
       </c>
       <c r="S5">
-        <v>0.05406507034720809</v>
+        <v>0.06242679545656363</v>
       </c>
       <c r="T5">
-        <v>0.05406507034720809</v>
+        <v>0.06242679545656364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08330552173817</v>
+        <v>1.434409</v>
       </c>
       <c r="H6">
-        <v>1.08330552173817</v>
+        <v>4.303227</v>
       </c>
       <c r="I6">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="J6">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q6">
-        <v>7.147397241212515</v>
+        <v>9.825579247098666</v>
       </c>
       <c r="R6">
-        <v>7.147397241212515</v>
+        <v>88.43021322388799</v>
       </c>
       <c r="S6">
-        <v>0.008092117745481133</v>
+        <v>0.009304844681921047</v>
       </c>
       <c r="T6">
-        <v>0.008092117745481133</v>
+        <v>0.009304844681921047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08330552173817</v>
+        <v>1.434409</v>
       </c>
       <c r="H7">
-        <v>1.08330552173817</v>
+        <v>4.303227</v>
       </c>
       <c r="I7">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="J7">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q7">
-        <v>23.19622937115955</v>
+        <v>30.76299237332199</v>
       </c>
       <c r="R7">
-        <v>23.19622937115955</v>
+        <v>276.8669313598979</v>
       </c>
       <c r="S7">
-        <v>0.02626223406756772</v>
+        <v>0.02913261994903826</v>
       </c>
       <c r="T7">
-        <v>0.02626223406756772</v>
+        <v>0.02913261994903826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.371571211630384</v>
+        <v>0.4245766666666667</v>
       </c>
       <c r="H8">
-        <v>0.371571211630384</v>
+        <v>1.27373</v>
       </c>
       <c r="I8">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="J8">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N8">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q8">
-        <v>16.3792345111761</v>
+        <v>19.51206338421444</v>
       </c>
       <c r="R8">
-        <v>16.3792345111761</v>
+        <v>175.60857045793</v>
       </c>
       <c r="S8">
-        <v>0.01854419025166705</v>
+        <v>0.01847796599549334</v>
       </c>
       <c r="T8">
-        <v>0.01854419025166705</v>
+        <v>0.01847796599549334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.371571211630384</v>
+        <v>0.4245766666666667</v>
       </c>
       <c r="H9">
-        <v>0.371571211630384</v>
+        <v>1.27373</v>
       </c>
       <c r="I9">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="J9">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q9">
-        <v>2.451540216152323</v>
+        <v>2.908313936124444</v>
       </c>
       <c r="R9">
-        <v>2.451540216152323</v>
+        <v>26.17482542512</v>
       </c>
       <c r="S9">
-        <v>0.002775577097142209</v>
+        <v>0.00275417955332203</v>
       </c>
       <c r="T9">
-        <v>0.002775577097142209</v>
+        <v>0.00275417955332203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.371571211630384</v>
+        <v>0.4245766666666667</v>
       </c>
       <c r="H10">
-        <v>0.371571211630384</v>
+        <v>1.27373</v>
       </c>
       <c r="I10">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="J10">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q10">
-        <v>7.956251380375813</v>
+        <v>9.105665649446665</v>
       </c>
       <c r="R10">
-        <v>7.956251380375813</v>
+        <v>81.95099084501999</v>
       </c>
       <c r="S10">
-        <v>0.009007883682665675</v>
+        <v>0.0086230849564033</v>
       </c>
       <c r="T10">
-        <v>0.009007883682665675</v>
+        <v>0.0086230849564033</v>
       </c>
     </row>
   </sheetData>
